--- a/CONFIG/Timesheets/srr11.xlsx
+++ b/CONFIG/Timesheets/srr11.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sev\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sev\Documents\GitHub\Walking-Tour-Project\CONFIG\Timesheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="44">
   <si>
     <t>Week: 31/10/13 - 07/11/13</t>
   </si>
@@ -83,9 +83,6 @@
     <t>Week 06/12/13 - 12/12/13</t>
   </si>
   <si>
-    <t>Week 27/01/14 - 03/01/14</t>
-  </si>
-  <si>
     <t>QA project plan - 01:30</t>
   </si>
   <si>
@@ -147,6 +144,18 @@
   </si>
   <si>
     <t>ACCUMULATED HOURS: 65:20</t>
+  </si>
+  <si>
+    <t>04/02/14 - 17/02/14</t>
+  </si>
+  <si>
+    <t>Week 27/01/14 - 03/02/14</t>
+  </si>
+  <si>
+    <t>Final report work - 10:00</t>
+  </si>
+  <si>
+    <t>ACCUMULATED HOURS: 75:20</t>
   </si>
 </sst>
 </file>
@@ -466,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K91"/>
+  <dimension ref="A1:K100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C91" sqref="C91"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="D101" sqref="D101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -480,7 +489,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -495,12 +504,12 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -517,7 +526,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G10" s="1"/>
     </row>
@@ -538,18 +547,18 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K14" s="2"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -579,17 +588,17 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -614,12 +623,12 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -634,12 +643,12 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -674,12 +683,12 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -699,7 +708,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -709,12 +718,12 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -749,12 +758,12 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -764,32 +773,57 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B97" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
